--- a/ResultFiltering.xlsx
+++ b/ResultFiltering.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eedee\Documents\mastersStuff\research\thesis\systematicReview\round2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eedee\Documents\mastersStuff\research\thesis\systematicReview\round2\RepoFiles\Performance-Testing-in-Agile-SLR-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D6766-ED1A-4D48-A8BB-574FFB842154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F2959-A102-49FA-BE7B-3462745AB915}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{5039B29F-A910-4B42-92BB-5940ABE18CBD}"/>
   </bookViews>
@@ -4787,7 +4787,9 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4841,7 +4843,9 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4895,7 +4899,9 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4949,34 +4955,9 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5030,7 +5011,9 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5084,7 +5067,233 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5169,9 +5378,7 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5227,9 +5434,7 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5285,212 +5490,7 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -6512,20 +6512,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{64E64DB2-DAF5-4BCA-B4F7-DD9EA67279D7}" name="Title" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EEB600FB-3654-4436-AE64-25AD2B290813}" name="Author" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{32017662-0BCA-4BBF-86F2-C29777EE21FA}" name="Erik's Comments" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{DDE192EA-E642-4B85-93E3-E9A42F2006C7}" name="Dr. Datta's Comments" dataDxfId="14" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{730338EF-233F-417A-8419-F4AC8F4F9154}" name="Consensus" dataDxfId="24" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{488C9279-99A8-4B4B-8540-9CB0E880D123}" name="Abstract" dataDxfId="23" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{6C11E0C8-104D-49A2-A336-4C04D661D842}" name="Journal" dataDxfId="22" totalsRowDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{013DC449-A67D-4E2F-B04B-93A3A5E3B309}" name="Volume" dataDxfId="21" totalsRowDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{609A695C-1886-4F71-A43C-F7E15F00497D}" name="Number" dataDxfId="20" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{638D1302-930D-4E50-86A2-1A4190290B82}" name="Month" dataDxfId="19" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{1C6559CD-B6DC-4075-B135-692BADCD0C95}" name="Year" dataDxfId="18" totalsRowDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{9CFBDC16-A9C4-4A80-8C92-F5CE8444D2ED}" name="ISBN" dataDxfId="17" totalsRowDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{59965796-F76C-46E0-A360-2CB45A415884}" name="URL" dataDxfId="16" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{E3621D72-1526-47C1-8EEB-608C01C55579}" name="Content Notes" dataDxfId="15" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{64E64DB2-DAF5-4BCA-B4F7-DD9EA67279D7}" name="Title" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{EEB600FB-3654-4436-AE64-25AD2B290813}" name="Author" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{32017662-0BCA-4BBF-86F2-C29777EE21FA}" name="Erik's Comments" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{DDE192EA-E642-4B85-93E3-E9A42F2006C7}" name="Dr. Datta's Comments" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{730338EF-233F-417A-8419-F4AC8F4F9154}" name="Consensus" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{488C9279-99A8-4B4B-8540-9CB0E880D123}" name="Abstract" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{6C11E0C8-104D-49A2-A336-4C04D661D842}" name="Journal" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{013DC449-A67D-4E2F-B04B-93A3A5E3B309}" name="Volume" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{609A695C-1886-4F71-A43C-F7E15F00497D}" name="Number" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{638D1302-930D-4E50-86A2-1A4190290B82}" name="Month" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{1C6559CD-B6DC-4075-B135-692BADCD0C95}" name="Year" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{9CFBDC16-A9C4-4A80-8C92-F5CE8444D2ED}" name="ISBN" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{59965796-F76C-46E0-A360-2CB45A415884}" name="URL" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{E3621D72-1526-47C1-8EEB-608C01C55579}" name="Content Notes" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -42312,7 +42312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1533B033-8126-4FA8-8BF2-7E6CC484971F}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N20"/>
     </sheetView>
   </sheetViews>
